--- a/Code/Results/Cases/Case_1_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.16876127959659</v>
+        <v>16.87792829883318</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.013791010465446</v>
+        <v>3.756858328303573</v>
       </c>
       <c r="E2">
-        <v>27.29199594264389</v>
+        <v>23.6275167487601</v>
       </c>
       <c r="F2">
-        <v>33.18537635654818</v>
+        <v>26.62715821472407</v>
       </c>
       <c r="G2">
-        <v>51.28460014318328</v>
+        <v>35.17175490361991</v>
       </c>
       <c r="H2">
-        <v>13.17089971755514</v>
+        <v>14.28575027185112</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.773944687851671</v>
+        <v>9.071561772022136</v>
       </c>
       <c r="M2">
-        <v>12.89719364920791</v>
+        <v>15.50722478689785</v>
       </c>
       <c r="N2">
-        <v>13.87343101022049</v>
+        <v>19.41956272620733</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.28769376839593</v>
+        <v>16.69055607013022</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.062618886353499</v>
+        <v>3.779977242251641</v>
       </c>
       <c r="E3">
-        <v>26.05008328439892</v>
+        <v>23.19863771392944</v>
       </c>
       <c r="F3">
-        <v>30.98821932969765</v>
+        <v>26.07889045076944</v>
       </c>
       <c r="G3">
-        <v>47.61942195229872</v>
+        <v>34.00925087887191</v>
       </c>
       <c r="H3">
-        <v>12.49809365177962</v>
+        <v>14.1989755036751</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.150332089556338</v>
+        <v>8.949398383956426</v>
       </c>
       <c r="M3">
-        <v>12.2901616125589</v>
+        <v>15.40731268961109</v>
       </c>
       <c r="N3">
-        <v>13.98376870603819</v>
+        <v>19.46719898768509</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.72856782110213</v>
+        <v>16.57794528369668</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.095805393927549</v>
+        <v>3.795028221844162</v>
       </c>
       <c r="E4">
-        <v>25.26227045815943</v>
+        <v>22.92940124251381</v>
       </c>
       <c r="F4">
-        <v>29.61818816271351</v>
+        <v>25.74722625757903</v>
       </c>
       <c r="G4">
-        <v>45.32859990329844</v>
+        <v>33.2904314911795</v>
       </c>
       <c r="H4">
-        <v>12.08325687896028</v>
+        <v>14.15012927755302</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.747955696018828</v>
+        <v>8.875157617447242</v>
       </c>
       <c r="M4">
-        <v>11.90838278900794</v>
+        <v>15.34834493926704</v>
       </c>
       <c r="N4">
-        <v>14.05632818128958</v>
+        <v>19.49886873922952</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.4963785345133</v>
+        <v>16.53271735357541</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.110051334597982</v>
+        <v>3.801376346578175</v>
       </c>
       <c r="E5">
-        <v>24.93502761975018</v>
+        <v>22.81828687927028</v>
       </c>
       <c r="F5">
-        <v>29.05076883197694</v>
+        <v>25.61353594488903</v>
       </c>
       <c r="G5">
-        <v>44.38061238504532</v>
+        <v>32.99679117106934</v>
       </c>
       <c r="H5">
-        <v>11.91392635825228</v>
+        <v>14.13135360721073</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.579064199334452</v>
+        <v>8.845130448851709</v>
       </c>
       <c r="M5">
-        <v>11.75070935930716</v>
+        <v>15.32493245312138</v>
       </c>
       <c r="N5">
-        <v>14.08709296740486</v>
+        <v>19.51238429861887</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.45756899764103</v>
+        <v>16.52524867899719</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.112458266868613</v>
+        <v>3.802443403263049</v>
       </c>
       <c r="E6">
-        <v>24.8803200862911</v>
+        <v>22.79975454858593</v>
       </c>
       <c r="F6">
-        <v>28.95600824623943</v>
+        <v>25.59143154754616</v>
       </c>
       <c r="G6">
-        <v>44.22206055738664</v>
+        <v>32.94800596744622</v>
       </c>
       <c r="H6">
-        <v>11.88579743933775</v>
+        <v>14.12830453029629</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.550722333396642</v>
+        <v>8.840159113528784</v>
       </c>
       <c r="M6">
-        <v>11.72440721506505</v>
+        <v>15.32108265684287</v>
       </c>
       <c r="N6">
-        <v>14.09227330152603</v>
+        <v>19.51466541527971</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.72545368034213</v>
+        <v>16.57733258009</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.095994697285321</v>
+        <v>3.795112966099341</v>
       </c>
       <c r="E7">
-        <v>25.25788202003099</v>
+        <v>22.92790826076658</v>
       </c>
       <c r="F7">
-        <v>29.61057225347358</v>
+        <v>25.74541704622534</v>
       </c>
       <c r="G7">
-        <v>45.31589154103799</v>
+        <v>33.28647349933218</v>
       </c>
       <c r="H7">
-        <v>12.08097413420258</v>
+        <v>14.14987147111078</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.745697907333541</v>
+        <v>8.874751699396031</v>
       </c>
       <c r="M7">
-        <v>11.90626456945371</v>
+        <v>15.34802666604488</v>
       </c>
       <c r="N7">
-        <v>14.05673825996059</v>
+        <v>19.49904854394493</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.86885350891341</v>
+        <v>16.81284653009188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.029906699855251</v>
+        <v>3.764651792043096</v>
       </c>
       <c r="E8">
-        <v>26.86910432774161</v>
+        <v>23.4809149815232</v>
       </c>
       <c r="F8">
-        <v>32.41827043094258</v>
+        <v>26.43721180509105</v>
       </c>
       <c r="G8">
-        <v>50.03794790771428</v>
+        <v>34.7722887488821</v>
       </c>
       <c r="H8">
-        <v>12.93935531818112</v>
+        <v>14.25491951336756</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.562947838258069</v>
+        <v>9.029300550234328</v>
       </c>
       <c r="M8">
-        <v>12.68986851380665</v>
+        <v>15.47229320537364</v>
       </c>
       <c r="N8">
-        <v>13.91046824730715</v>
+        <v>19.43548592612528</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.95978968029119</v>
+        <v>17.29180892491921</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.937478967250159</v>
+        <v>3.711731325941509</v>
       </c>
       <c r="E9">
-        <v>29.82442080171595</v>
+        <v>24.5149266793265</v>
       </c>
       <c r="F9">
-        <v>37.97750708149707</v>
+        <v>27.82390933414564</v>
       </c>
       <c r="G9">
-        <v>58.73577567564466</v>
+        <v>37.62364054515269</v>
       </c>
       <c r="H9">
-        <v>14.63010596393637</v>
+        <v>14.49535665266157</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.01270815092052</v>
+        <v>9.33698919817423</v>
       </c>
       <c r="M9">
-        <v>14.44524273150405</v>
+        <v>15.73396827794742</v>
       </c>
       <c r="N9">
-        <v>13.66247124688499</v>
+        <v>19.32999925494513</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.39718510692406</v>
+        <v>17.65112984217508</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.155337865066014</v>
+        <v>3.677037507325806</v>
       </c>
       <c r="E10">
-        <v>31.87044752757159</v>
+        <v>25.23933339631282</v>
       </c>
       <c r="F10">
-        <v>41.84605031835621</v>
+        <v>28.84875868967573</v>
       </c>
       <c r="G10">
-        <v>64.7592518859822</v>
+        <v>39.65338110208364</v>
       </c>
       <c r="H10">
-        <v>16.11437663132864</v>
+        <v>14.69187325811708</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.98785644756914</v>
+        <v>9.563895340882889</v>
       </c>
       <c r="M10">
-        <v>15.76762662812265</v>
+        <v>15.93594964356214</v>
       </c>
       <c r="N10">
-        <v>13.50491125234357</v>
+        <v>19.26411220647035</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.02904188581781</v>
+        <v>17.81556327193992</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.25454273461619</v>
+        <v>3.662171455564282</v>
       </c>
       <c r="E11">
-        <v>32.77514755604338</v>
+        <v>25.56034437617268</v>
       </c>
       <c r="F11">
-        <v>43.55904944481808</v>
+        <v>29.31382239886014</v>
       </c>
       <c r="G11">
-        <v>67.42889061754282</v>
+        <v>40.55769512294751</v>
       </c>
       <c r="H11">
-        <v>16.77318204084659</v>
+        <v>14.78531131535678</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.41288167673759</v>
+        <v>9.666894904159076</v>
       </c>
       <c r="M11">
-        <v>16.34219870829135</v>
+        <v>16.02967165338222</v>
       </c>
       <c r="N11">
-        <v>13.43880939217576</v>
+        <v>19.23664653332811</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.26513863805309</v>
+        <v>17.87791684654782</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.292203896567679</v>
+        <v>3.656674597043638</v>
       </c>
       <c r="E12">
-        <v>33.1141647789167</v>
+        <v>25.68060889647271</v>
       </c>
       <c r="F12">
-        <v>44.20158620023684</v>
+        <v>29.48957064102431</v>
       </c>
       <c r="G12">
-        <v>68.4306487359203</v>
+        <v>40.89704438480442</v>
       </c>
       <c r="H12">
-        <v>17.02052503080928</v>
+        <v>14.82124956225553</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.571252151575</v>
+        <v>9.705833013975777</v>
       </c>
       <c r="M12">
-        <v>16.55601751521192</v>
+        <v>16.0654021936005</v>
       </c>
       <c r="N12">
-        <v>13.41459935081356</v>
+        <v>19.22660536867377</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.21443188951104</v>
+        <v>17.86448490977824</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.284087279421233</v>
+        <v>3.657852533131116</v>
       </c>
       <c r="E13">
-        <v>33.04130674241477</v>
+        <v>25.6547664515395</v>
       </c>
       <c r="F13">
-        <v>44.06346670451317</v>
+        <v>29.4517391994073</v>
       </c>
       <c r="G13">
-        <v>68.21529301441964</v>
+        <v>40.82410239766813</v>
       </c>
       <c r="H13">
-        <v>16.96734600336803</v>
+        <v>14.81348534702744</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.53725720468947</v>
+        <v>9.697450440047668</v>
       </c>
       <c r="M13">
-        <v>16.51013290253927</v>
+        <v>16.05769669968771</v>
       </c>
       <c r="N13">
-        <v>13.41977656790653</v>
+        <v>19.22875194005396</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.04852923612624</v>
+        <v>17.82069171826549</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.257638744490599</v>
+        <v>3.661716563458819</v>
       </c>
       <c r="E14">
-        <v>32.80310906993349</v>
+        <v>25.5702649540397</v>
       </c>
       <c r="F14">
-        <v>43.61203053563958</v>
+        <v>29.32828964210585</v>
       </c>
       <c r="G14">
-        <v>67.51148359891609</v>
+        <v>40.58567753449527</v>
       </c>
       <c r="H14">
-        <v>16.79357236343887</v>
+        <v>14.78825700067937</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.42596197263261</v>
+        <v>9.670099870482881</v>
       </c>
       <c r="M14">
-        <v>16.35986429990915</v>
+        <v>16.03260655696694</v>
       </c>
       <c r="N14">
-        <v>13.43680104201817</v>
+        <v>19.23581324147433</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.94649611719363</v>
+        <v>17.79387675379636</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.241453143165924</v>
+        <v>3.664100686370521</v>
       </c>
       <c r="E15">
-        <v>32.65674715400121</v>
+        <v>25.51833466487133</v>
       </c>
       <c r="F15">
-        <v>43.33473304035472</v>
+        <v>29.25262051675754</v>
       </c>
       <c r="G15">
-        <v>67.07921667163217</v>
+        <v>40.43922239128855</v>
       </c>
       <c r="H15">
-        <v>16.68686083909959</v>
+        <v>14.7728754340357</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.3574578281566</v>
+        <v>9.653337328892597</v>
       </c>
       <c r="M15">
-        <v>16.26733474884625</v>
+        <v>16.01726864887428</v>
       </c>
       <c r="N15">
-        <v>13.44733657915716</v>
+        <v>19.24018528007642</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.35544729386739</v>
+        <v>17.64039873004045</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.148863167048451</v>
+        <v>3.678027547206194</v>
       </c>
       <c r="E16">
-        <v>31.8108122415851</v>
+        <v>25.21817698738892</v>
       </c>
       <c r="F16">
-        <v>41.73320775728843</v>
+        <v>28.81832559417817</v>
       </c>
       <c r="G16">
-        <v>64.58344424869848</v>
+        <v>39.59386763440018</v>
       </c>
       <c r="H16">
-        <v>16.07101036886621</v>
+        <v>14.68584600490459</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.95971393606418</v>
+        <v>9.557156717175365</v>
       </c>
       <c r="M16">
-        <v>15.72954399983416</v>
+        <v>15.92985962302995</v>
       </c>
       <c r="N16">
-        <v>13.50934499873288</v>
+        <v>19.26595751066323</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.98720220138567</v>
+        <v>17.54645625538808</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.092140953787045</v>
+        <v>3.68680649286435</v>
       </c>
       <c r="E17">
-        <v>31.28528773480654</v>
+        <v>25.03180565209285</v>
       </c>
       <c r="F17">
-        <v>40.73911816571956</v>
+        <v>28.55146325385176</v>
       </c>
       <c r="G17">
-        <v>63.03494234367656</v>
+        <v>39.07012913754004</v>
       </c>
       <c r="H17">
-        <v>15.68915165430539</v>
+        <v>14.63347342037463</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.71101538442003</v>
+        <v>9.498072049375347</v>
       </c>
       <c r="M17">
-        <v>15.39279671854189</v>
+        <v>15.87669089078674</v>
       </c>
       <c r="N17">
-        <v>13.54882654248102</v>
+        <v>19.28240926835482</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.77332286985625</v>
+        <v>17.49251815479124</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.059519760695374</v>
+        <v>3.6919421082632</v>
       </c>
       <c r="E18">
-        <v>30.98055369218692</v>
+        <v>24.92381122719091</v>
       </c>
       <c r="F18">
-        <v>40.16289481534277</v>
+        <v>28.39787442335711</v>
       </c>
       <c r="G18">
-        <v>62.13758378372098</v>
+        <v>38.76711678771959</v>
       </c>
       <c r="H18">
-        <v>15.46795692056658</v>
+        <v>14.60373215469689</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.56621573321658</v>
+        <v>9.464069260139514</v>
       </c>
       <c r="M18">
-        <v>15.19656035563515</v>
+        <v>15.84628429314827</v>
       </c>
       <c r="N18">
-        <v>13.5720586067347</v>
+        <v>19.29210788180303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.70055146237125</v>
+        <v>17.47427364217964</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.048473216270775</v>
+        <v>3.693695719661346</v>
       </c>
       <c r="E19">
-        <v>30.87694829057073</v>
+        <v>24.8871112043567</v>
       </c>
       <c r="F19">
-        <v>39.9670151055351</v>
+        <v>28.34586143895587</v>
       </c>
       <c r="G19">
-        <v>61.83257650156365</v>
+        <v>38.6642292837584</v>
       </c>
       <c r="H19">
-        <v>15.39279022237753</v>
+        <v>14.59372866030114</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.51688506143381</v>
+        <v>9.452554306814138</v>
       </c>
       <c r="M19">
-        <v>15.12967696586125</v>
+        <v>15.83601987846291</v>
       </c>
       <c r="N19">
-        <v>13.58001386703086</v>
+        <v>19.29543222804799</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.02661737793812</v>
+        <v>17.55644714207502</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.098178183181762</v>
+        <v>3.685863032131459</v>
       </c>
       <c r="E20">
-        <v>31.34148493800114</v>
+        <v>25.05172836395223</v>
       </c>
       <c r="F20">
-        <v>40.84539725495822</v>
+        <v>28.57988266753426</v>
       </c>
       <c r="G20">
-        <v>63.20047022450308</v>
+        <v>39.1260680960177</v>
       </c>
       <c r="H20">
-        <v>15.72996111092155</v>
+        <v>14.63900921328488</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.73767075762947</v>
+        <v>9.504363911861869</v>
       </c>
       <c r="M20">
-        <v>15.42890694013104</v>
+        <v>15.88233289372018</v>
       </c>
       <c r="N20">
-        <v>13.54456935982651</v>
+        <v>19.28063353285154</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.09734489236113</v>
+        <v>17.8335529289629</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.265404056040848</v>
+        <v>3.660577998747203</v>
       </c>
       <c r="E21">
-        <v>32.87316873698576</v>
+        <v>25.59512077999841</v>
       </c>
       <c r="F21">
-        <v>43.74478956268752</v>
+        <v>29.3645610896176</v>
       </c>
       <c r="G21">
-        <v>67.71844994208924</v>
+        <v>40.65579535800716</v>
       </c>
       <c r="H21">
-        <v>16.84466971999268</v>
+        <v>14.79565231994809</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.45872120433585</v>
+        <v>9.678135440288052</v>
       </c>
       <c r="M21">
-        <v>16.40410281058745</v>
+        <v>16.0399698220568</v>
       </c>
       <c r="N21">
-        <v>13.43177809086835</v>
+        <v>19.23372941730045</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.81956977606482</v>
+        <v>18.01513548707793</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.375293060809792</v>
+        <v>3.644826036698739</v>
       </c>
       <c r="E22">
-        <v>33.8535196395364</v>
+        <v>25.94267959328883</v>
       </c>
       <c r="F22">
-        <v>45.60429204632751</v>
+        <v>29.87520429665548</v>
       </c>
       <c r="G22">
-        <v>70.61831135752118</v>
+        <v>41.63738195227913</v>
       </c>
       <c r="H22">
-        <v>17.56090881993247</v>
+        <v>14.90125140484193</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.91500169775127</v>
+        <v>9.791307914841875</v>
       </c>
       <c r="M22">
-        <v>17.01960606885422</v>
+        <v>16.14438228610112</v>
       </c>
       <c r="N22">
-        <v>13.36285906855239</v>
+        <v>19.20516980386116</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.41670853421212</v>
+        <v>17.91819543209273</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.316558679954411</v>
+        <v>3.653162116043815</v>
       </c>
       <c r="E23">
-        <v>33.33210506620685</v>
+        <v>25.75789625627802</v>
       </c>
       <c r="F23">
-        <v>44.61485332486843</v>
+        <v>29.60292694675155</v>
       </c>
       <c r="G23">
-        <v>69.07507369738882</v>
+        <v>41.11526272955069</v>
       </c>
       <c r="H23">
-        <v>17.1796750799267</v>
+        <v>14.84460508157277</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.67281060885966</v>
+        <v>9.73095289006266</v>
       </c>
       <c r="M23">
-        <v>16.69305488745141</v>
+        <v>16.08853659384977</v>
       </c>
       <c r="N23">
-        <v>13.39919689803978</v>
+        <v>19.22022123765696</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.0088045357589</v>
+        <v>17.5519300379331</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.095448791392151</v>
+        <v>3.686289295186951</v>
       </c>
       <c r="E24">
-        <v>31.31608630223553</v>
+        <v>25.04272393901321</v>
       </c>
       <c r="F24">
-        <v>40.79736318641074</v>
+        <v>28.56703475299246</v>
       </c>
       <c r="G24">
-        <v>63.12565726737527</v>
+        <v>39.10078400856903</v>
       </c>
       <c r="H24">
-        <v>15.71151633962414</v>
+        <v>14.63650533178103</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.725625537732</v>
+        <v>9.501519464867277</v>
       </c>
       <c r="M24">
-        <v>15.41258972806452</v>
+        <v>15.87978164143904</v>
       </c>
       <c r="N24">
-        <v>13.5464923715798</v>
+        <v>19.28143559438437</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4111658395625</v>
+        <v>17.16071344047742</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.953325118362099</v>
+        <v>3.725315003905606</v>
       </c>
       <c r="E25">
-        <v>29.04709053055036</v>
+        <v>24.2410821882025</v>
       </c>
       <c r="F25">
-        <v>36.50804153478121</v>
+        <v>27.44684135777397</v>
       </c>
       <c r="G25">
-        <v>56.44972495638395</v>
+        <v>36.86190828961622</v>
       </c>
       <c r="H25">
-        <v>14.15634373520879</v>
+        <v>14.42673433259884</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.63658944063159</v>
+        <v>9.253461220268152</v>
       </c>
       <c r="M25">
-        <v>13.93360071703906</v>
+        <v>15.66137738678238</v>
       </c>
       <c r="N25">
-        <v>13.72530686889228</v>
+        <v>19.35649191341512</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_138/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_138/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.87792829883318</v>
+        <v>16.16876127959656</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.756858328303573</v>
+        <v>2.013791010465503</v>
       </c>
       <c r="E2">
-        <v>23.6275167487601</v>
+        <v>27.29199594264391</v>
       </c>
       <c r="F2">
-        <v>26.62715821472407</v>
+        <v>33.18537635654828</v>
       </c>
       <c r="G2">
-        <v>35.17175490361991</v>
+        <v>51.28460014318343</v>
       </c>
       <c r="H2">
-        <v>14.28575027185112</v>
+        <v>13.17089971755515</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.071561772022136</v>
+        <v>9.773944687851719</v>
       </c>
       <c r="M2">
-        <v>15.50722478689785</v>
+        <v>12.89719364920789</v>
       </c>
       <c r="N2">
-        <v>19.41956272620733</v>
+        <v>13.87343101022046</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.69055607013022</v>
+        <v>15.2876937683959</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.779977242251641</v>
+        <v>2.062618886353614</v>
       </c>
       <c r="E3">
-        <v>23.19863771392944</v>
+        <v>26.050083284399</v>
       </c>
       <c r="F3">
-        <v>26.07889045076944</v>
+        <v>30.98821932969765</v>
       </c>
       <c r="G3">
-        <v>34.00925087887191</v>
+        <v>47.61942195229881</v>
       </c>
       <c r="H3">
-        <v>14.1989755036751</v>
+        <v>12.49809365177959</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.949398383956426</v>
+        <v>9.150332089556413</v>
       </c>
       <c r="M3">
-        <v>15.40731268961109</v>
+        <v>12.29016161255889</v>
       </c>
       <c r="N3">
-        <v>19.46719898768509</v>
+        <v>13.98376870603814</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.57794528369668</v>
+        <v>14.72856782110205</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.795028221844162</v>
+        <v>2.0958053939276</v>
       </c>
       <c r="E4">
-        <v>22.92940124251381</v>
+        <v>25.26227045815921</v>
       </c>
       <c r="F4">
-        <v>25.74722625757903</v>
+        <v>29.61818816271348</v>
       </c>
       <c r="G4">
-        <v>33.2904314911795</v>
+        <v>45.32859990329836</v>
       </c>
       <c r="H4">
-        <v>14.15012927755302</v>
+        <v>12.08325687896029</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.875157617447242</v>
+        <v>8.747955696018785</v>
       </c>
       <c r="M4">
-        <v>15.34834493926704</v>
+        <v>11.90838278900796</v>
       </c>
       <c r="N4">
-        <v>19.49886873922952</v>
+        <v>14.05632818128952</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.53271735357541</v>
+        <v>14.49637853451331</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.801376346578175</v>
+        <v>2.110051334597991</v>
       </c>
       <c r="E5">
-        <v>22.81828687927028</v>
+        <v>24.93502761975035</v>
       </c>
       <c r="F5">
-        <v>25.61353594488903</v>
+        <v>29.05076883197694</v>
       </c>
       <c r="G5">
-        <v>32.99679117106934</v>
+        <v>44.38061238504537</v>
       </c>
       <c r="H5">
-        <v>14.13135360721073</v>
+        <v>11.91392635825223</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.845130448851709</v>
+        <v>8.579064199334379</v>
       </c>
       <c r="M5">
-        <v>15.32493245312138</v>
+        <v>11.75070935930719</v>
       </c>
       <c r="N5">
-        <v>19.51238429861887</v>
+        <v>14.08709296740484</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.52524867899719</v>
+        <v>14.45756899764101</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.802443403263049</v>
+        <v>2.112458266868612</v>
       </c>
       <c r="E6">
-        <v>22.79975454858593</v>
+        <v>24.8803200862911</v>
       </c>
       <c r="F6">
-        <v>25.59143154754616</v>
+        <v>28.95600824623941</v>
       </c>
       <c r="G6">
-        <v>32.94800596744622</v>
+        <v>44.22206055738659</v>
       </c>
       <c r="H6">
-        <v>14.12830453029629</v>
+        <v>11.88579743933773</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.840159113528784</v>
+        <v>8.5507223333966</v>
       </c>
       <c r="M6">
-        <v>15.32108265684287</v>
+        <v>11.72440721506505</v>
       </c>
       <c r="N6">
-        <v>19.51466541527971</v>
+        <v>14.0922733015261</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.57733258009</v>
+        <v>14.72545368034213</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.795112966099341</v>
+        <v>2.095994697285434</v>
       </c>
       <c r="E7">
-        <v>22.92790826076658</v>
+        <v>25.25788202003095</v>
       </c>
       <c r="F7">
-        <v>25.74541704622534</v>
+        <v>29.61057225347362</v>
       </c>
       <c r="G7">
-        <v>33.28647349933218</v>
+        <v>45.31589154103807</v>
       </c>
       <c r="H7">
-        <v>14.14987147111078</v>
+        <v>12.08097413420263</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.874751699396031</v>
+        <v>8.74569790733354</v>
       </c>
       <c r="M7">
-        <v>15.34802666604488</v>
+        <v>11.90626456945369</v>
       </c>
       <c r="N7">
-        <v>19.49904854394493</v>
+        <v>14.05673825996056</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.81284653009188</v>
+        <v>15.86885350891339</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.764651792043096</v>
+        <v>2.029906699855267</v>
       </c>
       <c r="E8">
-        <v>23.4809149815232</v>
+        <v>26.86910432774159</v>
       </c>
       <c r="F8">
-        <v>26.43721180509105</v>
+        <v>32.4182704309426</v>
       </c>
       <c r="G8">
-        <v>34.7722887488821</v>
+        <v>50.03794790771431</v>
       </c>
       <c r="H8">
-        <v>14.25491951336756</v>
+        <v>12.93935531818113</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.029300550234328</v>
+        <v>9.56294783825804</v>
       </c>
       <c r="M8">
-        <v>15.47229320537364</v>
+        <v>12.68986851380665</v>
       </c>
       <c r="N8">
-        <v>19.43548592612528</v>
+        <v>13.91046824730715</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.29180892491921</v>
+        <v>17.9597896802912</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.711731325941509</v>
+        <v>1.937478967250103</v>
       </c>
       <c r="E9">
-        <v>24.5149266793265</v>
+        <v>29.82442080171584</v>
       </c>
       <c r="F9">
-        <v>27.82390933414564</v>
+        <v>37.97750708149699</v>
       </c>
       <c r="G9">
-        <v>37.62364054515269</v>
+        <v>58.73577567564454</v>
       </c>
       <c r="H9">
-        <v>14.49535665266157</v>
+        <v>14.63010596393635</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.33698919817423</v>
+        <v>11.01270815092051</v>
       </c>
       <c r="M9">
-        <v>15.73396827794742</v>
+        <v>14.44524273150405</v>
       </c>
       <c r="N9">
-        <v>19.32999925494513</v>
+        <v>13.66247124688506</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.65112984217508</v>
+        <v>19.39718510692402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.677037507325806</v>
+        <v>2.155337865065893</v>
       </c>
       <c r="E10">
-        <v>25.23933339631282</v>
+        <v>31.87044752757163</v>
       </c>
       <c r="F10">
-        <v>28.84875868967573</v>
+        <v>41.84605031835619</v>
       </c>
       <c r="G10">
-        <v>39.65338110208364</v>
+        <v>64.75925188598212</v>
       </c>
       <c r="H10">
-        <v>14.69187325811708</v>
+        <v>16.11437663132861</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.563895340882889</v>
+        <v>11.98785644756911</v>
       </c>
       <c r="M10">
-        <v>15.93594964356214</v>
+        <v>15.7676266281226</v>
       </c>
       <c r="N10">
-        <v>19.26411220647035</v>
+        <v>13.50491125234353</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.81556327193992</v>
+        <v>20.0290418858178</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.662171455564282</v>
+        <v>2.254542734616233</v>
       </c>
       <c r="E11">
-        <v>25.56034437617268</v>
+        <v>32.77514755604354</v>
       </c>
       <c r="F11">
-        <v>29.31382239886014</v>
+        <v>43.55904944481806</v>
       </c>
       <c r="G11">
-        <v>40.55769512294751</v>
+        <v>67.42889061754282</v>
       </c>
       <c r="H11">
-        <v>14.78531131535678</v>
+        <v>16.77318204084656</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.666894904159076</v>
+        <v>12.4128816767376</v>
       </c>
       <c r="M11">
-        <v>16.02967165338222</v>
+        <v>16.34219870829132</v>
       </c>
       <c r="N11">
-        <v>19.23664653332811</v>
+        <v>13.4388093921758</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.87791684654782</v>
+        <v>20.2651386380531</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.656674597043638</v>
+        <v>2.292203896567612</v>
       </c>
       <c r="E12">
-        <v>25.68060889647271</v>
+        <v>33.11416477891686</v>
       </c>
       <c r="F12">
-        <v>29.48957064102431</v>
+        <v>44.20158620023689</v>
       </c>
       <c r="G12">
-        <v>40.89704438480442</v>
+        <v>68.43064873592031</v>
       </c>
       <c r="H12">
-        <v>14.82124956225553</v>
+        <v>17.0205250308093</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.705833013975777</v>
+        <v>12.57125215157494</v>
       </c>
       <c r="M12">
-        <v>16.0654021936005</v>
+        <v>16.55601751521192</v>
       </c>
       <c r="N12">
-        <v>19.22660536867377</v>
+        <v>13.41459935081358</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.86448490977824</v>
+        <v>20.21443188951104</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.657852533131116</v>
+        <v>2.284087279421167</v>
       </c>
       <c r="E13">
-        <v>25.6547664515395</v>
+        <v>33.04130674241504</v>
       </c>
       <c r="F13">
-        <v>29.4517391994073</v>
+        <v>44.06346670451335</v>
       </c>
       <c r="G13">
-        <v>40.82410239766813</v>
+        <v>68.21529301441981</v>
       </c>
       <c r="H13">
-        <v>14.81348534702744</v>
+        <v>16.96734600336811</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.697450440047668</v>
+        <v>12.53725720468951</v>
       </c>
       <c r="M13">
-        <v>16.05769669968771</v>
+        <v>16.51013290253927</v>
       </c>
       <c r="N13">
-        <v>19.22875194005396</v>
+        <v>13.41977656790653</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.82069171826549</v>
+        <v>20.04852923612623</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.661716563458819</v>
+        <v>2.257638744490646</v>
       </c>
       <c r="E14">
-        <v>25.5702649540397</v>
+        <v>32.80310906993336</v>
       </c>
       <c r="F14">
-        <v>29.32828964210585</v>
+        <v>43.61203053563953</v>
       </c>
       <c r="G14">
-        <v>40.58567753449527</v>
+        <v>67.51148359891603</v>
       </c>
       <c r="H14">
-        <v>14.78825700067937</v>
+        <v>16.79357236343885</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.670099870482881</v>
+        <v>12.42596197263266</v>
       </c>
       <c r="M14">
-        <v>16.03260655696694</v>
+        <v>16.35986429990917</v>
       </c>
       <c r="N14">
-        <v>19.23581324147433</v>
+        <v>13.43680104201817</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.79387675379636</v>
+        <v>19.94649611719366</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.664100686370521</v>
+        <v>2.241453143165863</v>
       </c>
       <c r="E15">
-        <v>25.51833466487133</v>
+        <v>32.65674715400137</v>
       </c>
       <c r="F15">
-        <v>29.25262051675754</v>
+        <v>43.33473304035475</v>
       </c>
       <c r="G15">
-        <v>40.43922239128855</v>
+        <v>67.0792166716321</v>
       </c>
       <c r="H15">
-        <v>14.7728754340357</v>
+        <v>16.68686083909961</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.653337328892597</v>
+        <v>12.3574578281566</v>
       </c>
       <c r="M15">
-        <v>16.01726864887428</v>
+        <v>16.26733474884623</v>
       </c>
       <c r="N15">
-        <v>19.24018528007642</v>
+        <v>13.44733657915719</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.64039873004045</v>
+        <v>19.35544729386739</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.678027547206194</v>
+        <v>2.148863167048274</v>
       </c>
       <c r="E16">
-        <v>25.21817698738892</v>
+        <v>31.8108122415851</v>
       </c>
       <c r="F16">
-        <v>28.81832559417817</v>
+        <v>41.73320775728855</v>
       </c>
       <c r="G16">
-        <v>39.59386763440018</v>
+        <v>64.58344424869864</v>
       </c>
       <c r="H16">
-        <v>14.68584600490459</v>
+        <v>16.07101036886623</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.557156717175365</v>
+        <v>11.95971393606416</v>
       </c>
       <c r="M16">
-        <v>15.92985962302995</v>
+        <v>15.72954399983419</v>
       </c>
       <c r="N16">
-        <v>19.26595751066323</v>
+        <v>13.50934499873287</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.54645625538808</v>
+        <v>18.98720220138568</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.68680649286435</v>
+        <v>2.092140953787053</v>
       </c>
       <c r="E17">
-        <v>25.03180565209285</v>
+        <v>31.2852877348064</v>
       </c>
       <c r="F17">
-        <v>28.55146325385176</v>
+        <v>40.73911816571945</v>
       </c>
       <c r="G17">
-        <v>39.07012913754004</v>
+        <v>63.03494234367641</v>
       </c>
       <c r="H17">
-        <v>14.63347342037463</v>
+        <v>15.68915165430533</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.498072049375347</v>
+        <v>11.71101538441994</v>
       </c>
       <c r="M17">
-        <v>15.87669089078674</v>
+        <v>15.39279671854184</v>
       </c>
       <c r="N17">
-        <v>19.28240926835482</v>
+        <v>13.54882654248102</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.49251815479124</v>
+        <v>18.77332286985625</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.6919421082632</v>
+        <v>2.059519760695351</v>
       </c>
       <c r="E18">
-        <v>24.92381122719091</v>
+        <v>30.98055369218712</v>
       </c>
       <c r="F18">
-        <v>28.39787442335711</v>
+        <v>40.16289481534291</v>
       </c>
       <c r="G18">
-        <v>38.76711678771959</v>
+        <v>62.13758378372112</v>
       </c>
       <c r="H18">
-        <v>14.60373215469689</v>
+        <v>15.46795692056662</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.464069260139514</v>
+        <v>11.56621573321661</v>
       </c>
       <c r="M18">
-        <v>15.84628429314827</v>
+        <v>15.19656035563517</v>
       </c>
       <c r="N18">
-        <v>19.29210788180303</v>
+        <v>13.5720586067347</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.47427364217964</v>
+        <v>18.70055146237126</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.693695719661346</v>
+        <v>2.048473216270771</v>
       </c>
       <c r="E19">
-        <v>24.8871112043567</v>
+        <v>30.8769482905707</v>
       </c>
       <c r="F19">
-        <v>28.34586143895587</v>
+        <v>39.96701510553496</v>
       </c>
       <c r="G19">
-        <v>38.6642292837584</v>
+        <v>61.83257650156342</v>
       </c>
       <c r="H19">
-        <v>14.59372866030114</v>
+        <v>15.3927902223775</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.452554306814138</v>
+        <v>11.51688506143373</v>
       </c>
       <c r="M19">
-        <v>15.83601987846291</v>
+        <v>15.12967696586123</v>
       </c>
       <c r="N19">
-        <v>19.29543222804799</v>
+        <v>13.58001386703097</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.55644714207502</v>
+        <v>19.02661737793812</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.685863032131459</v>
+        <v>2.098178183181776</v>
       </c>
       <c r="E20">
-        <v>25.05172836395223</v>
+        <v>31.34148493800107</v>
       </c>
       <c r="F20">
-        <v>28.57988266753426</v>
+        <v>40.84539725495828</v>
       </c>
       <c r="G20">
-        <v>39.1260680960177</v>
+        <v>63.2004702245032</v>
       </c>
       <c r="H20">
-        <v>14.63900921328488</v>
+        <v>15.72996111092155</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.504363911861869</v>
+        <v>11.73767075762951</v>
       </c>
       <c r="M20">
-        <v>15.88233289372018</v>
+        <v>15.42890694013107</v>
       </c>
       <c r="N20">
-        <v>19.28063353285154</v>
+        <v>13.54456935982647</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.8335529289629</v>
+        <v>20.09734489236114</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.660577998747203</v>
+        <v>2.265404056040905</v>
       </c>
       <c r="E21">
-        <v>25.59512077999841</v>
+        <v>32.8731687369858</v>
       </c>
       <c r="F21">
-        <v>29.3645610896176</v>
+        <v>43.74478956268765</v>
       </c>
       <c r="G21">
-        <v>40.65579535800716</v>
+        <v>67.71844994208949</v>
       </c>
       <c r="H21">
-        <v>14.79565231994809</v>
+        <v>16.84466971999273</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.678135440288052</v>
+        <v>12.4587212043359</v>
       </c>
       <c r="M21">
-        <v>16.0399698220568</v>
+        <v>16.40410281058748</v>
       </c>
       <c r="N21">
-        <v>19.23372941730045</v>
+        <v>13.43177809086831</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.01513548707793</v>
+        <v>20.81956977606481</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.644826036698739</v>
+        <v>2.37529306080988</v>
       </c>
       <c r="E22">
-        <v>25.94267959328883</v>
+        <v>33.85351963953662</v>
       </c>
       <c r="F22">
-        <v>29.87520429665548</v>
+        <v>45.60429204632754</v>
       </c>
       <c r="G22">
-        <v>41.63738195227913</v>
+        <v>70.61831135752139</v>
       </c>
       <c r="H22">
-        <v>14.90125140484193</v>
+        <v>17.56090881993249</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.791307914841875</v>
+        <v>12.9150016977513</v>
       </c>
       <c r="M22">
-        <v>16.14438228610112</v>
+        <v>17.01960606885423</v>
       </c>
       <c r="N22">
-        <v>19.20516980386116</v>
+        <v>13.36285906855242</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.91819543209273</v>
+        <v>20.41670853421213</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.653162116043815</v>
+        <v>2.316558679954402</v>
       </c>
       <c r="E23">
-        <v>25.75789625627802</v>
+        <v>33.33210506620684</v>
       </c>
       <c r="F23">
-        <v>29.60292694675155</v>
+        <v>44.61485332486854</v>
       </c>
       <c r="G23">
-        <v>41.11526272955069</v>
+        <v>69.07507369738904</v>
       </c>
       <c r="H23">
-        <v>14.84460508157277</v>
+        <v>17.17967507992675</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.73095289006266</v>
+        <v>12.67281060885971</v>
       </c>
       <c r="M23">
-        <v>16.08853659384977</v>
+        <v>16.69305488745147</v>
       </c>
       <c r="N23">
-        <v>19.22022123765696</v>
+        <v>13.39919689803976</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.5519300379331</v>
+        <v>19.00880453575893</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.686289295186951</v>
+        <v>2.095448791392156</v>
       </c>
       <c r="E24">
-        <v>25.04272393901321</v>
+        <v>31.31608630223542</v>
       </c>
       <c r="F24">
-        <v>28.56703475299246</v>
+        <v>40.79736318641077</v>
       </c>
       <c r="G24">
-        <v>39.10078400856903</v>
+        <v>63.12565726737529</v>
       </c>
       <c r="H24">
-        <v>14.63650533178103</v>
+        <v>15.71151633962417</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.501519464867277</v>
+        <v>11.72562553773194</v>
       </c>
       <c r="M24">
-        <v>15.87978164143904</v>
+        <v>15.41258972806455</v>
       </c>
       <c r="N24">
-        <v>19.28143559438437</v>
+        <v>13.54649237157976</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.16071344047742</v>
+        <v>17.4111658395625</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.725315003905606</v>
+        <v>1.953325118362022</v>
       </c>
       <c r="E25">
-        <v>24.2410821882025</v>
+        <v>29.04709053055049</v>
       </c>
       <c r="F25">
-        <v>27.44684135777397</v>
+        <v>36.50804153478121</v>
       </c>
       <c r="G25">
-        <v>36.86190828961622</v>
+        <v>56.449724956384</v>
       </c>
       <c r="H25">
-        <v>14.42673433259884</v>
+        <v>14.15634373520877</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.253461220268152</v>
+        <v>10.63658944063153</v>
       </c>
       <c r="M25">
-        <v>15.66137738678238</v>
+        <v>13.93360071703906</v>
       </c>
       <c r="N25">
-        <v>19.35649191341512</v>
+        <v>13.7253068688922</v>
       </c>
       <c r="O25">
         <v>0</v>
